--- a/mysheet.xlsx
+++ b/mysheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Drive\git_repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A80BE6-11DC-4F66-B2DC-C6E9303FCD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D65D37-5D2A-4D8B-98BF-0F6735E47EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>skill</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>cloud</t>
+  </si>
+  <si>
+    <t>priyadarsan</t>
+  </si>
+  <si>
+    <t>devops</t>
   </si>
 </sst>
 </file>
@@ -365,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="AB1:AC2"/>
+  <dimension ref="AB1:AC3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,6 +395,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="28:29" x14ac:dyDescent="0.35">
+      <c r="AB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
